--- a/examples/USD201217.xlsx
+++ b/examples/USD201217.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12030" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD_Korea" sheetId="1" r:id="rId1"/>
     <sheet name="USD_IRS" sheetId="2" r:id="rId2"/>
+    <sheet name="sample" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" calcOnSave="0"/>
   <extLst>
@@ -94,7 +95,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="185" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -376,7 +377,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3060,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
@@ -5457,4 +5458,25 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>